--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>118572</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100278</v>
+        <v>100042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141771</v>
+        <v>138806</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1149265474659509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0971945569022937</v>
+        <v>0.09696643062439894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1374121691265373</v>
+        <v>0.1345380553443973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -765,19 +765,19 @@
         <v>168780</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143552</v>
+        <v>145058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192555</v>
+        <v>194154</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1283390723618443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1091554303624564</v>
+        <v>0.1103008627288955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1464172890115691</v>
+        <v>0.1476328639098434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>289</v>
@@ -786,19 +786,19 @@
         <v>287353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>255971</v>
+        <v>254659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>317884</v>
+        <v>320412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1224426179908816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1090707656389676</v>
+        <v>0.1085117034007397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1354524254151648</v>
+        <v>0.1365294648531361</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>913151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>889952</v>
+        <v>892917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>931445</v>
+        <v>931681</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8850734525340491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8625878308734627</v>
+        <v>0.8654619446556028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9028054430977063</v>
+        <v>0.9030335693756011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1126</v>
@@ -836,19 +836,19 @@
         <v>1146333</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1122558</v>
+        <v>1120959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1171561</v>
+        <v>1170055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8716609276381557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8535827109884307</v>
+        <v>0.8523671360901568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8908445696375434</v>
+        <v>0.8896991372711045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2040</v>
@@ -857,19 +857,19 @@
         <v>2059482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2028951</v>
+        <v>2026423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2090864</v>
+        <v>2092176</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8775573820091184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8645475745848352</v>
+        <v>0.8634705351468639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8909292343610324</v>
+        <v>0.8914882965992603</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>54246</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41289</v>
+        <v>42284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69596</v>
+        <v>69784</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03205271035764445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02439696577842311</v>
+        <v>0.02498466381608502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04112301716477168</v>
+        <v>0.04123375768055831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>29022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19378</v>
+        <v>19050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42133</v>
+        <v>41027</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01827949377681903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01220515225991973</v>
+        <v>0.01199841868965322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02653732735970799</v>
+        <v>0.02584098002541655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -1003,19 +1003,19 @@
         <v>83268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67555</v>
+        <v>66682</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101567</v>
+        <v>101392</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02538596791732003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02059558488668117</v>
+        <v>0.02032953192131477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03096496610792403</v>
+        <v>0.03091169895816934</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1638148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1622798</v>
+        <v>1622610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1651105</v>
+        <v>1650110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9679472896423555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9588769828352283</v>
+        <v>0.9587662423194416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9756030342215768</v>
+        <v>0.9750153361839148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1526</v>
@@ -1053,19 +1053,19 @@
         <v>1558651</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1545540</v>
+        <v>1546646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1568295</v>
+        <v>1568623</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.981720506223181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9734626726402921</v>
+        <v>0.9741590199745834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9877948477400803</v>
+        <v>0.9880015813103468</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3117</v>
@@ -1074,19 +1074,19 @@
         <v>3196799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3178500</v>
+        <v>3178675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3212512</v>
+        <v>3213385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9746140320826799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.969035033892076</v>
+        <v>0.9690883010418306</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9794044151133188</v>
+        <v>0.9796704680786852</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4841</v>
+        <v>5150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17629</v>
+        <v>18874</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01851673513456614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00877997767951557</v>
+        <v>0.009338879462887648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03197051446965373</v>
+        <v>0.03422830971586552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7413</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3096</v>
+        <v>3057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14858</v>
+        <v>14916</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01556035862410234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006499259347476526</v>
+        <v>0.006417072390359439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03118786632784261</v>
+        <v>0.03130844682248887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17623</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10665</v>
+        <v>10886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27058</v>
+        <v>27834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01714640496197554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01037606309154818</v>
+        <v>0.01059177431570582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02632602895583424</v>
+        <v>0.02708078426626532</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>541198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533779</v>
+        <v>532534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546567</v>
+        <v>546258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814832648654339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9680294855303463</v>
+        <v>0.9657716902841345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912200223204843</v>
+        <v>0.9906611205371123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1270,19 +1270,19 @@
         <v>468999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>461554</v>
+        <v>461496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473316</v>
+        <v>473355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9844396413758977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9688121336721568</v>
+        <v>0.9686915531775105</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935007406525235</v>
+        <v>0.9935829276096404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>962</v>
@@ -1291,19 +1291,19 @@
         <v>1010197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1000762</v>
+        <v>999986</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1017155</v>
+        <v>1016934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9828535950380245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9736739710441658</v>
+        <v>0.9729192157337346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9896239369084517</v>
+        <v>0.9894082256842942</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>183028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05587758800138626</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -1416,19 +1416,19 @@
         <v>205215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06072901664633672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -1437,19 +1437,19 @@
         <v>388244</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05834109188413016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3092497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3064735</v>
+        <v>3064626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3114467</v>
+        <v>3118244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9441224119986137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9356468973593435</v>
+        <v>0.935613789448286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.950829798453188</v>
+        <v>0.9519829428883313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3097</v>
@@ -1487,19 +1487,19 @@
         <v>3173982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3145586</v>
+        <v>3146092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3199762</v>
+        <v>3198934</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9392709833536633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9308679744514444</v>
+        <v>0.9310175393899172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9469002268046151</v>
+        <v>0.9466551718174541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6119</v>
@@ -1508,19 +1508,19 @@
         <v>6266478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6229902</v>
+        <v>6228324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6306904</v>
+        <v>6302918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9416589081158698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9361626690829274</v>
+        <v>0.9359255071327885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9477336961124239</v>
+        <v>0.9471346909646229</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>166407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142394</v>
+        <v>143088</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190853</v>
+        <v>192749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1708787415474988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1462205252553206</v>
+        <v>0.1469335150279691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1959820841230651</v>
+        <v>0.1979291965445565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>228</v>
@@ -1872,19 +1872,19 @@
         <v>239552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>212939</v>
+        <v>212619</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270131</v>
+        <v>269663</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.17963775248945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1596811138815311</v>
+        <v>0.1594408075120796</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2025690652666548</v>
+        <v>0.2022176757542217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>378</v>
@@ -1893,19 +1893,19 @@
         <v>405958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>374575</v>
+        <v>369663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>445798</v>
+        <v>442109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1759409789198553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.162339729533331</v>
+        <v>0.1602109195746228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1932073579460443</v>
+        <v>0.1916086025991003</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>807421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>782975</v>
+        <v>781079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>831434</v>
+        <v>830740</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8291212584525012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8040179158769348</v>
+        <v>0.8020708034554435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8537794747446794</v>
+        <v>0.8530664849720309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1015</v>
@@ -1943,19 +1943,19 @@
         <v>1093975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1063396</v>
+        <v>1063864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1120588</v>
+        <v>1120908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.82036224751055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7974309347333453</v>
+        <v>0.7977823242457782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8403188861184689</v>
+        <v>0.8405591924879203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1772</v>
@@ -1964,19 +1964,19 @@
         <v>1901397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1861557</v>
+        <v>1865246</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1932780</v>
+        <v>1937692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8240590210801447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8067926420539556</v>
+        <v>0.8083913974008998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8376602704666691</v>
+        <v>0.8397890804253773</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>69868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54883</v>
+        <v>53865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90017</v>
+        <v>88124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03564677854481551</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02800119595942717</v>
+        <v>0.02748190313250722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04592638646843054</v>
+        <v>0.04496090039084959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -2089,19 +2089,19 @@
         <v>52429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40116</v>
+        <v>38418</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69074</v>
+        <v>69826</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02992765397748904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02289924341768337</v>
+        <v>0.02193006503560578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03942914811956241</v>
+        <v>0.03985851194443864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>115</v>
@@ -2110,19 +2110,19 @@
         <v>122297</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101994</v>
+        <v>102877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148364</v>
+        <v>148007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03294758914090735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02747773503760015</v>
+        <v>0.02771568640026285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03997010775324061</v>
+        <v>0.03987403815423479</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1890154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1870005</v>
+        <v>1871898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1905139</v>
+        <v>1906157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9643532214551845</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9540736135315696</v>
+        <v>0.95503909960915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9719988040405728</v>
+        <v>0.9725180968674927</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1582</v>
@@ -2160,19 +2160,19 @@
         <v>1699420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1682775</v>
+        <v>1682023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1711733</v>
+        <v>1713431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9700723460225109</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9605708518804376</v>
+        <v>0.9601414880555613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9771007565823165</v>
+        <v>0.9780699349643942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3367</v>
@@ -2181,19 +2181,19 @@
         <v>3589574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3563507</v>
+        <v>3563864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3609877</v>
+        <v>3608994</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9670524108590927</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9600298922467594</v>
+        <v>0.9601259618457652</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9725222649623998</v>
+        <v>0.9722843135997372</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23153</v>
+        <v>24690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02872083826827707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01495400554178152</v>
+        <v>0.01495162189026575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04820184659009032</v>
+        <v>0.05140194366985476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2306,19 +2306,19 @@
         <v>7060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2946</v>
+        <v>2236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15637</v>
+        <v>15012</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01542646166517604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006436798902255313</v>
+        <v>0.004885883671721992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03416733201737276</v>
+        <v>0.0328016743659923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2327,19 +2327,19 @@
         <v>20856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12751</v>
+        <v>12477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33710</v>
+        <v>33260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02223435835144238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0135944785045744</v>
+        <v>0.01330179293993654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03593836712079621</v>
+        <v>0.0354584358804982</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>466536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>457179</v>
+        <v>455642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>473149</v>
+        <v>473150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9712791617317229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.95179815340991</v>
+        <v>0.9485980563301454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850459944582185</v>
+        <v>0.9850483781097343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -2377,19 +2377,19 @@
         <v>450594</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442017</v>
+        <v>442642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454708</v>
+        <v>455418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.984573538334824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9658326679826272</v>
+        <v>0.9671983256340076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935632010977448</v>
+        <v>0.9951141163282778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -2398,19 +2398,19 @@
         <v>917130</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>904276</v>
+        <v>904726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>925235</v>
+        <v>925509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9777656416485576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9640616328792053</v>
+        <v>0.9645415641195011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9864055214954258</v>
+        <v>0.9866982070600634</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>250071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221483</v>
+        <v>219951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285303</v>
+        <v>283032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07324463660788606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06487158684550789</v>
+        <v>0.06442268557711349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08356406491165377</v>
+        <v>0.08289888887369187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>282</v>
@@ -2523,19 +2523,19 @@
         <v>299041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>264706</v>
+        <v>267362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>332065</v>
+        <v>335479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08440247920379333</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07471165235613492</v>
+        <v>0.07546149121821859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09372330962491467</v>
+        <v>0.09468710023992978</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>511</v>
@@ -2544,19 +2544,19 @@
         <v>549111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>500268</v>
+        <v>506811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>593677</v>
+        <v>595778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07892688050570934</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07190643457556514</v>
+        <v>0.07284691009395622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08533259312554106</v>
+        <v>0.08563452146062824</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3164111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3128879</v>
+        <v>3131150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3192699</v>
+        <v>3194231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.926755363392114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9164359350883464</v>
+        <v>0.9171011111263081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9351284131544921</v>
+        <v>0.9355773144228866</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3002</v>
@@ -2594,19 +2594,19 @@
         <v>3243990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3210966</v>
+        <v>3207552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3278325</v>
+        <v>3275669</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9155975207962067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9062766903750853</v>
+        <v>0.9053128997600701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9252883476438649</v>
+        <v>0.9245385087817813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5969</v>
@@ -2615,19 +2615,19 @@
         <v>6408102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6363536</v>
+        <v>6361435</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6456945</v>
+        <v>6450402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9210731194942907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9146674068744588</v>
+        <v>0.9143654785393712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9280935654244348</v>
+        <v>0.9271530899060435</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>143574</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122804</v>
+        <v>123088</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164288</v>
+        <v>163681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1903293290283746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1627952623875363</v>
+        <v>0.163171212044563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2177881090169365</v>
+        <v>0.2169839789061143</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -2979,19 +2979,19 @@
         <v>186410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>160331</v>
+        <v>161179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212608</v>
+        <v>213928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1874111620061089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1611916570099472</v>
+        <v>0.1620444127769199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2137494209903233</v>
+        <v>0.2150760456038081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -3000,19 +3000,19 @@
         <v>329985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299933</v>
+        <v>296397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>362355</v>
+        <v>365251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1886697675763299</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1714876932727488</v>
+        <v>0.1694661489711513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2071775365691397</v>
+        <v>0.2088335010111479</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>610773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>590059</v>
+        <v>590666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>631543</v>
+        <v>631259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8096706709716255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7822118909830634</v>
+        <v>0.7830160210938858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8372047376124637</v>
+        <v>0.836828787955437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>732</v>
@@ -3050,19 +3050,19 @@
         <v>808250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>782052</v>
+        <v>780732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>834329</v>
+        <v>833481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8125888379938911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7862505790096767</v>
+        <v>0.7849239543961919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8388083429900528</v>
+        <v>0.8379555872230802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1342</v>
@@ -3071,19 +3071,19 @@
         <v>1419022</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1386652</v>
+        <v>1383756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1449074</v>
+        <v>1452610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8113302324236701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7928224634308604</v>
+        <v>0.7911664989888523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8285123067272513</v>
+        <v>0.8305338510288488</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>118951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96851</v>
+        <v>99264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140748</v>
+        <v>140617</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05728755151019591</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04664392429581724</v>
+        <v>0.04780610047700185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06778492818052831</v>
+        <v>0.06772193192950025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -3196,19 +3196,19 @@
         <v>81251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62884</v>
+        <v>63492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100670</v>
+        <v>101364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0408646287709364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03162715268932106</v>
+        <v>0.03193257993600934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05063137083097166</v>
+        <v>0.05098022086027836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>186</v>
@@ -3217,19 +3217,19 @@
         <v>200202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171401</v>
+        <v>173587</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227982</v>
+        <v>231388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04925403892475672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04216831162848596</v>
+        <v>0.04270614609906637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05608839168017633</v>
+        <v>0.05692654728373026</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1957434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1935637</v>
+        <v>1935768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1979534</v>
+        <v>1977121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9427124484898041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9322150718194717</v>
+        <v>0.9322780680705001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9533560757041828</v>
+        <v>0.9521938995229982</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1837</v>
@@ -3267,19 +3267,19 @@
         <v>1907049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1887630</v>
+        <v>1886936</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1925416</v>
+        <v>1924808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9591353712290636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9493686291690282</v>
+        <v>0.9490197791397216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9683728473106789</v>
+        <v>0.9680674200639906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3674</v>
@@ -3288,19 +3288,19 @@
         <v>3864483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3836703</v>
+        <v>3833297</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3893284</v>
+        <v>3891098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9507459610752432</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9439116083198239</v>
+        <v>0.9430734527162697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9578316883715149</v>
+        <v>0.9572938539009339</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>20415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12013</v>
+        <v>12322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32920</v>
+        <v>33037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03733008030366666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02196606208052029</v>
+        <v>0.02253200898969968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06019472525436876</v>
+        <v>0.06040963503267047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3413,19 +3413,19 @@
         <v>10281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5242</v>
+        <v>4961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17704</v>
+        <v>18917</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01872199228339172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00954612751116013</v>
+        <v>0.009034028418506071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03223866712288721</v>
+        <v>0.03444761416749275</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3434,19 +3434,19 @@
         <v>30696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20612</v>
+        <v>20513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42532</v>
+        <v>44722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02800690113003519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01880607817863397</v>
+        <v>0.01871561148884604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03880574185593424</v>
+        <v>0.040803615843868</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>526471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513966</v>
+        <v>513849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534873</v>
+        <v>534564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9626699196963333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9398052747456312</v>
+        <v>0.9395903649673298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9780339379194798</v>
+        <v>0.9774679910103006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -3484,19 +3484,19 @@
         <v>538859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531436</v>
+        <v>530223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>543898</v>
+        <v>544179</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9812780077166082</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9677613328771124</v>
+        <v>0.9655523858325068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9904538724888395</v>
+        <v>0.9909659715814939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1000</v>
@@ -3505,19 +3505,19 @@
         <v>1065331</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053495</v>
+        <v>1051305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1075415</v>
+        <v>1075514</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9719930988699648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9611942581440658</v>
+        <v>0.9591963841561321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.981193921821366</v>
+        <v>0.981284388511154</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>282941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>251740</v>
+        <v>249345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>318092</v>
+        <v>311938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08376928311950217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07453171081944657</v>
+        <v>0.07382282963232192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09417631271635167</v>
+        <v>0.09235432138661645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -3630,19 +3630,19 @@
         <v>277943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>247624</v>
+        <v>245160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>314897</v>
+        <v>312792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07869044483637098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07010664336082416</v>
+        <v>0.06940915896916552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08915293471269713</v>
+        <v>0.08855683285975155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>525</v>
@@ -3651,19 +3651,19 @@
         <v>560883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>513451</v>
+        <v>519470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>607265</v>
+        <v>607498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08117308942420193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0743085544240995</v>
+        <v>0.07517966828547946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08788569737328193</v>
+        <v>0.08791939955845121</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3094677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3059526</v>
+        <v>3065680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3125878</v>
+        <v>3128273</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9162307168804978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9058236872836483</v>
+        <v>0.9076456786133834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9254682891805533</v>
+        <v>0.9261771703676779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3085</v>
@@ -3701,19 +3701,19 @@
         <v>3254157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3217203</v>
+        <v>3219308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3284476</v>
+        <v>3286940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.921309555163629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9108470652873032</v>
+        <v>0.9114431671402483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9298933566391759</v>
+        <v>0.9305908410308343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6016</v>
@@ -3722,19 +3722,19 @@
         <v>6348835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6302453</v>
+        <v>6302220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6396267</v>
+        <v>6390248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.918826910575798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.912114302626718</v>
+        <v>0.9120806004415488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9256914455759004</v>
+        <v>0.9248203317145206</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>96667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82549</v>
+        <v>82758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112680</v>
+        <v>113526</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.167376559177155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1429309235113787</v>
+        <v>0.1432938044925407</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1951020590363285</v>
+        <v>0.1965681233249189</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>317</v>
@@ -4086,19 +4086,19 @@
         <v>164876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150184</v>
+        <v>148887</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183879</v>
+        <v>184137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2010395790093887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1831259196334649</v>
+        <v>0.1815441278029677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2242108718105944</v>
+        <v>0.2245259956916537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>463</v>
@@ -4107,19 +4107,19 @@
         <v>261543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>239617</v>
+        <v>240170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285604</v>
+        <v>285569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.187129303712471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1714417650900425</v>
+        <v>0.1718376434714833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2043447907007217</v>
+        <v>0.2043199524180607</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>480875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>464862</v>
+        <v>464016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>494993</v>
+        <v>494784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.832623440822845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8048979409636716</v>
+        <v>0.803431876675081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8570690764886213</v>
+        <v>0.8567061955074592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1107</v>
@@ -4157,19 +4157,19 @@
         <v>655240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>636237</v>
+        <v>635979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>669932</v>
+        <v>671229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7989604209906114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7757891281894065</v>
+        <v>0.775474004308346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8168740803665354</v>
+        <v>0.8184558721970323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1651</v>
@@ -4178,19 +4178,19 @@
         <v>1136115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1112054</v>
+        <v>1112089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1158041</v>
+        <v>1157488</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8128706962875291</v>
+        <v>0.8128706962875289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7956552092992782</v>
+        <v>0.7956800475819393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8285582349099573</v>
+        <v>0.8281623565285168</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>166215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145472</v>
+        <v>142802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190958</v>
+        <v>191278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07451684783102701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06521767710169173</v>
+        <v>0.06402032443981905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.085609524711856</v>
+        <v>0.08575307064695557</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -4303,19 +4303,19 @@
         <v>93009</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79325</v>
+        <v>79620</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109031</v>
+        <v>109332</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04284720220250911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03654329963994477</v>
+        <v>0.03667951948082724</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05022849031713179</v>
+        <v>0.05036722385681021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -4324,19 +4324,19 @@
         <v>259224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233430</v>
+        <v>233675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>288029</v>
+        <v>286074</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05889738500180058</v>
+        <v>0.05889738500180059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05303701488737942</v>
+        <v>0.053092530325844</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0654421012484203</v>
+        <v>0.06499801925868205</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2064351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2039608</v>
+        <v>2039288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2085094</v>
+        <v>2087764</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.925483152168973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.914390475288144</v>
+        <v>0.9142469293530443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9347823228983083</v>
+        <v>0.9359796755601809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2748</v>
@@ -4374,19 +4374,19 @@
         <v>2077698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2061676</v>
+        <v>2061375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2091382</v>
+        <v>2091087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9571527977974909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9497715096828683</v>
+        <v>0.9496327761431897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9634567003600554</v>
+        <v>0.9633204805191725</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4535</v>
@@ -4395,19 +4395,19 @@
         <v>4142050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4113245</v>
+        <v>4115200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4167844</v>
+        <v>4167599</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9411026149981995</v>
+        <v>0.9411026149981994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9345578987515796</v>
+        <v>0.9350019807413178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9469629851126201</v>
+        <v>0.9469074696741558</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>42666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31582</v>
+        <v>32569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56031</v>
+        <v>56781</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05995833685748509</v>
+        <v>0.05995833685748507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04438204571139619</v>
+        <v>0.04576985716314683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07874063952533739</v>
+        <v>0.07979489465147876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4520,19 +4520,19 @@
         <v>18693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13302</v>
+        <v>12839</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26054</v>
+        <v>26521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02543671795806144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01810048196061576</v>
+        <v>0.01747076042918511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03545306745765009</v>
+        <v>0.0360891199632749</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -4541,19 +4541,19 @@
         <v>61358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48956</v>
+        <v>48950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75755</v>
+        <v>76291</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04241960242854995</v>
+        <v>0.04241960242854993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03384511535485947</v>
+        <v>0.03384139741071863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05237234081842621</v>
+        <v>0.05274335148134558</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>668921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655556</v>
+        <v>654806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680005</v>
+        <v>679018</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9400416631425149</v>
+        <v>0.9400416631425148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9212593604746629</v>
+        <v>0.9202051053485204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9556179542886036</v>
+        <v>0.9542301428368527</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>972</v>
@@ -4591,19 +4591,19 @@
         <v>716184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>708823</v>
+        <v>708356</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721575</v>
+        <v>722038</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9745632820419383</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9645469325423498</v>
+        <v>0.963910880036725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9818995180393842</v>
+        <v>0.9825292395708148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1600</v>
@@ -4612,19 +4612,19 @@
         <v>1385106</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1370709</v>
+        <v>1370173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1397508</v>
+        <v>1397514</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9575803975714502</v>
+        <v>0.95758039757145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9476276591815739</v>
+        <v>0.9472566485186541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9661548846451404</v>
+        <v>0.9661586025892813</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>305547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>277267</v>
+        <v>275024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>338571</v>
+        <v>338991</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08681073301206253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07877583988048635</v>
+        <v>0.07813870199700676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09619319622966564</v>
+        <v>0.0963125080189622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>521</v>
@@ -4737,19 +4737,19 @@
         <v>276577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253306</v>
+        <v>253797</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302389</v>
+        <v>302587</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07423499635466423</v>
+        <v>0.07423499635466424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06798872770928163</v>
+        <v>0.06812050062725762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08116301393821738</v>
+        <v>0.08121601290565217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>925</v>
@@ -4758,19 +4758,19 @@
         <v>582125</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>542554</v>
+        <v>544927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>624118</v>
+        <v>622197</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08034408449448124</v>
+        <v>0.08034408449448126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0748825511563552</v>
+        <v>0.07521013422250616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08613993614542352</v>
+        <v>0.08587477984827802</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3214148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3181124</v>
+        <v>3180704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3242428</v>
+        <v>3244671</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9131892669879373</v>
+        <v>0.9131892669879375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9038068037703345</v>
+        <v>0.9036874919810377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9212241601195137</v>
+        <v>0.9218612980029931</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4827</v>
@@ -4808,19 +4808,19 @@
         <v>3449124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3423312</v>
+        <v>3423114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3472395</v>
+        <v>3471904</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9257650036453356</v>
+        <v>0.925765003645336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9188369860617825</v>
+        <v>0.9187839870943479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9320112722907182</v>
+        <v>0.9318794993727424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7786</v>
@@ -4829,19 +4829,19 @@
         <v>6663271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6621278</v>
+        <v>6623199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6702842</v>
+        <v>6700469</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9196559155055187</v>
+        <v>0.9196559155055188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9138600638545769</v>
+        <v>0.914125220151722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.925117448843645</v>
+        <v>0.9247898657774938</v>
       </c>
     </row>
     <row r="15">
